--- a/result.xlsx
+++ b/result.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phillips\Desktop\Data for Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PSYCH\data_manipulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E742C7A-6115-4A1A-8583-80564F4E57E3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Total Intake" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="Meal Size" sheetId="3" r:id="rId3"/>
     <sheet name="Intermeal Interval" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -125,8 +126,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{03605B01-7186-4CDF-80F7-DFCF40A7452F}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -400,19 +429,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="9.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C2" t="s">
         <v>3</v>
       </c>
@@ -426,12 +455,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="1">
         <v>16.38</v>
       </c>
@@ -449,7 +478,7 @@
         <v>17.002500000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="1">
         <v>13.94</v>
       </c>
@@ -467,7 +496,7 @@
         <v>14.59</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C6" s="2">
         <v>15.86</v>
       </c>
@@ -485,7 +514,7 @@
         <v>15.797499999999999</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" s="4">
         <f>AVERAGE(C4:C6)</f>
         <v>15.393333333333333</v>
@@ -511,16 +540,16 @@
         <v>63.186666666666653</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
         <v>1</v>
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" s="1">
         <v>15.75</v>
       </c>
@@ -539,7 +568,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" s="1">
         <v>17.28</v>
       </c>
@@ -558,7 +587,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" s="1">
         <v>14.4</v>
       </c>
@@ -577,7 +606,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" s="1">
         <v>21.33</v>
       </c>
@@ -596,7 +625,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" s="1">
         <v>15.17</v>
       </c>
@@ -615,7 +644,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C15" s="2">
         <v>18.739999999999998</v>
       </c>
@@ -634,7 +663,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" s="4">
         <f>AVERAGE(C10:C15)</f>
         <v>17.111666666666665</v>
@@ -660,16 +689,16 @@
         <v>72.661666666666662</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
         <v>2</v>
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" s="1">
         <v>21.76</v>
       </c>
@@ -688,7 +717,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" s="1">
         <v>19.510000000000002</v>
       </c>
@@ -707,7 +736,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C21" s="2">
         <v>20.94</v>
       </c>
@@ -726,7 +755,7 @@
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" s="4">
         <f>AVERAGE(C19:C21)</f>
         <v>20.736666666666668</v>
@@ -752,7 +781,7 @@
         <v>78.433333333333337</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C26" s="4">
         <f>C16-C7</f>
         <v>1.7183333333333319</v>
@@ -775,7 +804,7 @@
         <v>9.4750000000000068</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" s="4">
         <f>C22-C7</f>
         <v>5.3433333333333355</v>
@@ -804,16 +833,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22:F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C2" t="s">
         <v>3</v>
       </c>
@@ -827,12 +856,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="1">
         <v>8</v>
       </c>
@@ -850,7 +879,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="1">
         <v>6</v>
       </c>
@@ -868,7 +897,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C6" s="2">
         <v>11</v>
       </c>
@@ -886,7 +915,7 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" s="5">
         <f>AVERAGE(C4:C6)</f>
         <v>8.3333333333333339</v>
@@ -904,12 +933,12 @@
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" s="1">
         <v>6</v>
       </c>
@@ -927,7 +956,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" s="1">
         <v>5</v>
       </c>
@@ -945,7 +974,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" s="1">
         <v>7</v>
       </c>
@@ -963,7 +992,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" s="1">
         <v>7</v>
       </c>
@@ -981,7 +1010,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" s="1">
         <v>5</v>
       </c>
@@ -999,7 +1028,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C15" s="2">
         <v>6</v>
       </c>
@@ -1017,7 +1046,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" s="5">
         <f>AVERAGE(C10:C15)</f>
         <v>6</v>
@@ -1035,12 +1064,12 @@
         <v>7.166666666666667</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" s="1">
         <v>7</v>
       </c>
@@ -1058,7 +1087,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" s="1">
         <v>5</v>
       </c>
@@ -1076,7 +1105,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C21" s="2">
         <v>5</v>
       </c>
@@ -1094,7 +1123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" s="5">
         <f>AVERAGE(C19:C21)</f>
         <v>5.666666666666667</v>
@@ -1118,19 +1147,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22:F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.20703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C2" t="s">
         <v>3</v>
       </c>
@@ -1144,12 +1173,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="1">
         <v>2.0499999999999998</v>
       </c>
@@ -1167,7 +1196,7 @@
         <v>2.6625000000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="1">
         <v>2.3199999999999998</v>
       </c>
@@ -1185,7 +1214,7 @@
         <v>2.4000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C6" s="2">
         <v>1.44</v>
       </c>
@@ -1203,7 +1232,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" s="4">
         <f>AVERAGE(C4:C6)</f>
         <v>1.9366666666666663</v>
@@ -1221,12 +1250,12 @@
         <v>2.4666666666666668</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" s="1">
         <v>2.62</v>
       </c>
@@ -1244,7 +1273,7 @@
         <v>3.4374999999999996</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" s="1">
         <v>3.46</v>
       </c>
@@ -1262,7 +1291,7 @@
         <v>3.2275</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" s="1">
         <v>2.06</v>
       </c>
@@ -1280,7 +1309,7 @@
         <v>2.0150000000000001</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" s="1">
         <v>3.05</v>
       </c>
@@ -1298,7 +1327,7 @@
         <v>2.2549999999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" s="1">
         <v>3.03</v>
       </c>
@@ -1316,7 +1345,7 @@
         <v>3.0674999999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C15" s="2">
         <v>3.12</v>
       </c>
@@ -1334,7 +1363,7 @@
         <v>2.7824999999999998</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" s="4">
         <f>AVERAGE(C10:C15)</f>
         <v>2.89</v>
@@ -1352,12 +1381,12 @@
         <v>2.7466666666666666</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" s="1">
         <v>3.11</v>
       </c>
@@ -1375,7 +1404,7 @@
         <v>3.0774999999999997</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" s="1">
         <v>3.9</v>
       </c>
@@ -1393,7 +1422,7 @@
         <v>3.2050000000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C21" s="2">
         <v>4.1900000000000004</v>
       </c>
@@ -1411,7 +1440,7 @@
         <v>4.09</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" s="4">
         <f>AVERAGE(C19:C21)</f>
         <v>3.7333333333333329</v>
@@ -1435,19 +1464,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C2" t="s">
         <v>3</v>
       </c>
@@ -1461,12 +1490,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="6">
         <v>4254.5714289999996</v>
       </c>
@@ -1480,7 +1509,7 @@
         <v>5072</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="7">
         <v>7318.2</v>
       </c>
@@ -1494,7 +1523,7 @@
         <v>7594.8</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C6" s="9">
         <v>3374</v>
       </c>
@@ -1508,7 +1537,7 @@
         <v>3968.1428571428573</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:8" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" s="6">
         <f t="shared" ref="C7:F7" si="0">AVERAGE(C4:C6)</f>
         <v>4982.2571429999998</v>
@@ -1530,7 +1559,7 @@
         <v>5445.7476190833331</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="3">
         <v>1.9366666666666663</v>
       </c>
@@ -1544,7 +1573,7 @@
         <v>2.4666666666666668</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -1569,24 +1598,24 @@
         <v>2441.7128187435064</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C13">
         <v>6986.6</v>
       </c>
@@ -1600,7 +1629,7 @@
         <v>5198.8</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C14">
         <v>4930.75</v>
       </c>
@@ -1614,7 +1643,7 @@
         <v>4114.1666670000004</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C15">
         <v>5257.3333329999996</v>
       </c>
@@ -1628,7 +1657,7 @@
         <v>4871.2857139999996</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C16">
         <v>5583</v>
       </c>
@@ -1642,7 +1671,7 @@
         <v>2887.909091</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C17">
         <v>4765.75</v>
       </c>
@@ -1656,7 +1685,7 @@
         <v>7403.25</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C18" s="11">
         <v>4990</v>
       </c>
@@ -1670,7 +1699,7 @@
         <v>5489.25</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:8" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" s="4">
         <f>AVERAGE(C13:C18)</f>
         <v>5418.9055555000004</v>
@@ -1692,7 +1721,7 @@
         <v>5099.3857292916664</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" s="4">
         <v>2.89</v>
       </c>
@@ -1706,7 +1735,7 @@
         <v>2.7466666666666666</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="s">
         <v>7</v>
       </c>
@@ -1731,18 +1760,18 @@
         <v>1822.2503764267101</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C25" s="7">
         <v>4399.8333329999996</v>
       </c>
@@ -1756,7 +1785,7 @@
         <v>6339.8</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C26" s="7">
         <v>7903.5</v>
       </c>
@@ -1770,7 +1799,7 @@
         <v>5794.75</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C27" s="8">
         <v>8086.75</v>
       </c>
@@ -1784,7 +1813,7 @@
         <v>7865.3333329999996</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" s="6">
         <f>AVERAGE(C25:C27)</f>
         <v>6796.6944443333332</v>
@@ -1806,7 +1835,7 @@
         <v>6054.4722221388884</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C29" s="4">
         <v>3.7333333333333329</v>
       </c>
@@ -1820,7 +1849,7 @@
         <v>3.9866666666666668</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" t="s">
         <v>7</v>
       </c>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PSYCH\data_manipulation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phillips\Desktop\Data for Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E742C7A-6115-4A1A-8583-80564F4E57E3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985"/>
   </bookViews>
   <sheets>
     <sheet name="Total Intake" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="Meal Size" sheetId="3" r:id="rId3"/>
     <sheet name="Intermeal Interval" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -57,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -126,36 +125,8 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{03605B01-7186-4CDF-80F7-DFCF40A7452F}">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -429,19 +400,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="9.26171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C2" t="s">
         <v>3</v>
       </c>
@@ -455,12 +426,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C4" s="1">
         <v>16.38</v>
       </c>
@@ -478,7 +449,7 @@
         <v>17.002500000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C5" s="1">
         <v>13.94</v>
       </c>
@@ -496,7 +467,7 @@
         <v>14.59</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C6" s="2">
         <v>15.86</v>
       </c>
@@ -514,7 +485,7 @@
         <v>15.797499999999999</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C7" s="4">
         <f>AVERAGE(C4:C6)</f>
         <v>15.393333333333333</v>
@@ -540,16 +511,16 @@
         <v>63.186666666666653</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>1</v>
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C10" s="1">
         <v>15.75</v>
       </c>
@@ -568,7 +539,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C11" s="1">
         <v>17.28</v>
       </c>
@@ -587,7 +558,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C12" s="1">
         <v>14.4</v>
       </c>
@@ -606,7 +577,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C13" s="1">
         <v>21.33</v>
       </c>
@@ -625,7 +596,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C14" s="1">
         <v>15.17</v>
       </c>
@@ -644,7 +615,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C15" s="2">
         <v>18.739999999999998</v>
       </c>
@@ -663,7 +634,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C16" s="4">
         <f>AVERAGE(C10:C15)</f>
         <v>17.111666666666665</v>
@@ -689,16 +660,16 @@
         <v>72.661666666666662</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>2</v>
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C19" s="1">
         <v>21.76</v>
       </c>
@@ -717,7 +688,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C20" s="1">
         <v>19.510000000000002</v>
       </c>
@@ -736,7 +707,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C21" s="2">
         <v>20.94</v>
       </c>
@@ -755,7 +726,7 @@
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C22" s="4">
         <f>AVERAGE(C19:C21)</f>
         <v>20.736666666666668</v>
@@ -781,7 +752,7 @@
         <v>78.433333333333337</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C26" s="4">
         <f>C16-C7</f>
         <v>1.7183333333333319</v>
@@ -804,7 +775,7 @@
         <v>9.4750000000000068</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C28" s="4">
         <f>C22-C7</f>
         <v>5.3433333333333355</v>
@@ -833,16 +804,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22:F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C2" t="s">
         <v>3</v>
       </c>
@@ -856,12 +827,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C4" s="1">
         <v>8</v>
       </c>
@@ -879,7 +850,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C5" s="1">
         <v>6</v>
       </c>
@@ -897,7 +868,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C6" s="2">
         <v>11</v>
       </c>
@@ -915,7 +886,7 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C7" s="5">
         <f>AVERAGE(C4:C6)</f>
         <v>8.3333333333333339</v>
@@ -933,12 +904,12 @@
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C10" s="1">
         <v>6</v>
       </c>
@@ -956,7 +927,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C11" s="1">
         <v>5</v>
       </c>
@@ -974,7 +945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C12" s="1">
         <v>7</v>
       </c>
@@ -992,7 +963,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C13" s="1">
         <v>7</v>
       </c>
@@ -1010,7 +981,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C14" s="1">
         <v>5</v>
       </c>
@@ -1028,7 +999,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C15" s="2">
         <v>6</v>
       </c>
@@ -1046,7 +1017,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C16" s="5">
         <f>AVERAGE(C10:C15)</f>
         <v>6</v>
@@ -1064,12 +1035,12 @@
         <v>7.166666666666667</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C19" s="1">
         <v>7</v>
       </c>
@@ -1087,7 +1058,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C20" s="1">
         <v>5</v>
       </c>
@@ -1105,7 +1076,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C21" s="2">
         <v>5</v>
       </c>
@@ -1123,7 +1094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C22" s="5">
         <f>AVERAGE(C19:C21)</f>
         <v>5.666666666666667</v>
@@ -1147,19 +1118,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22:F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="10.20703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C2" t="s">
         <v>3</v>
       </c>
@@ -1173,12 +1144,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C4" s="1">
         <v>2.0499999999999998</v>
       </c>
@@ -1196,7 +1167,7 @@
         <v>2.6625000000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C5" s="1">
         <v>2.3199999999999998</v>
       </c>
@@ -1214,7 +1185,7 @@
         <v>2.4000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C6" s="2">
         <v>1.44</v>
       </c>
@@ -1232,7 +1203,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C7" s="4">
         <f>AVERAGE(C4:C6)</f>
         <v>1.9366666666666663</v>
@@ -1250,12 +1221,12 @@
         <v>2.4666666666666668</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C10" s="1">
         <v>2.62</v>
       </c>
@@ -1273,7 +1244,7 @@
         <v>3.4374999999999996</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C11" s="1">
         <v>3.46</v>
       </c>
@@ -1291,7 +1262,7 @@
         <v>3.2275</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C12" s="1">
         <v>2.06</v>
       </c>
@@ -1309,7 +1280,7 @@
         <v>2.0150000000000001</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C13" s="1">
         <v>3.05</v>
       </c>
@@ -1327,7 +1298,7 @@
         <v>2.2549999999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C14" s="1">
         <v>3.03</v>
       </c>
@@ -1345,7 +1316,7 @@
         <v>3.0674999999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C15" s="2">
         <v>3.12</v>
       </c>
@@ -1363,7 +1334,7 @@
         <v>2.7824999999999998</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C16" s="4">
         <f>AVERAGE(C10:C15)</f>
         <v>2.89</v>
@@ -1381,12 +1352,12 @@
         <v>2.7466666666666666</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C19" s="1">
         <v>3.11</v>
       </c>
@@ -1404,7 +1375,7 @@
         <v>3.0774999999999997</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C20" s="1">
         <v>3.9</v>
       </c>
@@ -1422,7 +1393,7 @@
         <v>3.2050000000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C21" s="2">
         <v>4.1900000000000004</v>
       </c>
@@ -1440,7 +1411,7 @@
         <v>4.09</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C22" s="4">
         <f>AVERAGE(C19:C21)</f>
         <v>3.7333333333333329</v>
@@ -1464,19 +1435,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C2" t="s">
         <v>3</v>
       </c>
@@ -1490,12 +1461,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C4" s="6">
         <v>4254.5714289999996</v>
       </c>
@@ -1509,7 +1480,7 @@
         <v>5072</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C5" s="7">
         <v>7318.2</v>
       </c>
@@ -1523,7 +1494,7 @@
         <v>7594.8</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C6" s="9">
         <v>3374</v>
       </c>
@@ -1537,7 +1508,7 @@
         <v>3968.1428571428573</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:8" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="C7" s="6">
         <f t="shared" ref="C7:F7" si="0">AVERAGE(C4:C6)</f>
         <v>4982.2571429999998</v>
@@ -1559,7 +1530,7 @@
         <v>5445.7476190833331</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C8" s="3">
         <v>1.9366666666666663</v>
       </c>
@@ -1573,7 +1544,7 @@
         <v>2.4666666666666668</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -1598,24 +1569,24 @@
         <v>2441.7128187435064</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C13">
         <v>6986.6</v>
       </c>
@@ -1629,7 +1600,7 @@
         <v>5198.8</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C14">
         <v>4930.75</v>
       </c>
@@ -1643,7 +1614,7 @@
         <v>4114.1666670000004</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C15">
         <v>5257.3333329999996</v>
       </c>
@@ -1657,7 +1628,7 @@
         <v>4871.2857139999996</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C16">
         <v>5583</v>
       </c>
@@ -1671,7 +1642,7 @@
         <v>2887.909091</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C17">
         <v>4765.75</v>
       </c>
@@ -1685,7 +1656,7 @@
         <v>7403.25</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="18" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C18" s="11">
         <v>4990</v>
       </c>
@@ -1699,7 +1670,7 @@
         <v>5489.25</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:8" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="C19" s="4">
         <f>AVERAGE(C13:C18)</f>
         <v>5418.9055555000004</v>
@@ -1721,7 +1692,7 @@
         <v>5099.3857292916664</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C20" s="4">
         <v>2.89</v>
       </c>
@@ -1735,7 +1706,7 @@
         <v>2.7466666666666666</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>7</v>
       </c>
@@ -1760,18 +1731,18 @@
         <v>1822.2503764267101</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C25" s="7">
         <v>4399.8333329999996</v>
       </c>
@@ -1785,7 +1756,7 @@
         <v>6339.8</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C26" s="7">
         <v>7903.5</v>
       </c>
@@ -1799,7 +1770,7 @@
         <v>5794.75</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="27" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C27" s="8">
         <v>8086.75</v>
       </c>
@@ -1813,7 +1784,7 @@
         <v>7865.3333329999996</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C28" s="6">
         <f>AVERAGE(C25:C27)</f>
         <v>6796.6944443333332</v>
@@ -1835,7 +1806,7 @@
         <v>6054.4722221388884</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C29" s="4">
         <v>3.7333333333333329</v>
       </c>
@@ -1849,7 +1820,7 @@
         <v>3.9866666666666668</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>7</v>
       </c>
